--- a/biology/Botanique/Lotier/Lotier.xlsx
+++ b/biology/Botanique/Lotier/Lotier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotus
 Les lotiers (Lotus) sont un genre de plantes herbacées annuelles ou vivaces de la famille des Fabacées, sous-famille des Faboideae.
@@ -512,13 +524,50 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes à la base parfois ligneuse, aux feuilles pennées à trois folioles. L'évolution foliaire des Fabaceae a conduit, à partir de feuilles alternes, stipulées et primitivement imparipennées, à une réduction à 3 folioles mais avec développement de stipules en compensation, simulant une feuille à 5 folioles[1]. Cependant, chez la plupart des espèces, ces stipules sont plus petits que les folioles, caducs ou se fanent rapidement[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes à la base parfois ligneuse, aux feuilles pennées à trois folioles. L'évolution foliaire des Fabaceae a conduit, à partir de feuilles alternes, stipulées et primitivement imparipennées, à une réduction à 3 folioles mais avec développement de stipules en compensation, simulant une feuille à 5 folioles. Cependant, chez la plupart des espèces, ces stipules sont plus petits que les folioles, caducs ou se fanent rapidement.
 Les fleurs sont solitaires ou groupées en petites têtes, jaunes.
 Les fruits sont des gousses.
-Espèces du genre Lotus
-Selon ITIS      (17 mars 2012)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lotier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces du genre Lotus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (17 mars 2012) :
 Lotus alpinus (Ser.) Schleich. ex Ramond
 Lotus angustissimus L.
 Lotus arabicus L.
@@ -562,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Lotier</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lotier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lotier corniculé est l'une des légumineuses fourragères utilisées en mélange avec des graminées pour la rénovation des prairies, de 15 à 20 cm de hauteur. Le lotier est une des rares fabacées à résister dans un terrain sec.
 L'espèce Lotus japonicus est très utilisée comme organisme modèle dans l'étude des plantes, notamment pour la génétique des fabacées, au même titre que Medicago truncatula.
@@ -594,31 +645,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lotier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lotier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les chenilles des papillons suivants se nourrissent de lotier :
 Erynnis tages (le Point-de-Hongrie) (Hesperiidae)
